--- a/biology/Zoologie/Figue_de_mer/Figue_de_mer.xlsx
+++ b/biology/Zoologie/Figue_de_mer/Figue_de_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microcosmus sabatieri
 La figue de mer ou violet est une espèce d'ascidies stolidobranches comestible des eaux côtières méditerranéennes.
@@ -514,9 +526,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grosse ascidie, pouvant dépasser 10 cm à l'âge adulte. Le corps est en forme d'outre, souvent recouvert d'épibiontes (algues et organismes fixés), d'où son nom scientifique (Microcosmus, « petit monde »). Le tégument (« tunique ») est épais et la chair jaune vif, avec un orifice buccal (siphon inhalant) à une extrémité, et un orifice anal (siphon exhalant) au milieu du corps : tous deux sont  marqués de huit stries roses. Les violets vivent fixés au substrat par la partie postérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grosse ascidie, pouvant dépasser 10 cm à l'âge adulte. Le corps est en forme d'outre, souvent recouvert d'épibiontes (algues et organismes fixés), d'où son nom scientifique (Microcosmus, « petit monde »). Le tégument (« tunique ») est épais et la chair jaune vif, avec un orifice buccal (siphon inhalant) à une extrémité, et un orifice anal (siphon exhalant) au milieu du corps : tous deux sont  marqués de huit stries roses. Les violets vivent fixés au substrat par la partie postérieure.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La figue de mer vit fixée sur des roches et des coquilles mortes (seule la larve est mobile). Elle se nourrit en filtrant l'eau de mer[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La figue de mer vit fixée sur des roches et des coquilles mortes (seule la larve est mobile). Elle se nourrit en filtrant l'eau de mer.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La « figue de mer » est aussi le nom vernaculaire donné aux espèces du genre Carpobrotus, des plantes de la famille des Aizoaceae.
 </t>
@@ -607,7 +625,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chez les poissonniers de Méditerranée, le violet est vendu sous les noms suivants :
 Vioulet ou Viourlet
@@ -645,14 +665,86 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces du genre Microcosmus sont comestibles mais c'est principalement M. sabatieri qui est commercialisée. Le violet méditerranéen est consommé cru, souvent avec un condiment acide (jus de citron ou vinaigre à l'échalote). Le goût très fortement iodé ne convient pas à tous les palais[1].
-Europe méditerranéenne
-Les violets sont essentiellement appréciés - à cause de leur fort goût iodé - dans les pays de la Méditerranée septentrionale. La saison de cueillette commence en avril et se poursuit jusqu'à l'automne. Ils sont généralement dégustés fraîchement coupés et vendus sur des marchés, ou à l’étal de forains jouxtant les plages. Il existe une recette plus élaborée : l'omelette de violets. Celle-ci se fait à base de leur chair battue en mousse, à laquelle on ajoute ou non une persillade à l'ail[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces du genre Microcosmus sont comestibles mais c'est principalement M. sabatieri qui est commercialisée. Le violet méditerranéen est consommé cru, souvent avec un condiment acide (jus de citron ou vinaigre à l'échalote). Le goût très fortement iodé ne convient pas à tous les palais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Figue_de_mer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figue_de_mer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Europe méditerranéenne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les violets sont essentiellement appréciés - à cause de leur fort goût iodé - dans les pays de la Méditerranée septentrionale. La saison de cueillette commence en avril et se poursuit jusqu'à l'automne. Ils sont généralement dégustés fraîchement coupés et vendus sur des marchés, ou à l’étal de forains jouxtant les plages. Il existe une recette plus élaborée : l'omelette de violets. Celle-ci se fait à base de leur chair battue en mousse, à laquelle on ajoute ou non une persillade à l'ail.
 			Une assiette de piure au marché de Valparaíso
-Hors d'Europe
-En Corée, on consomme un tunicier au goût similaire (Styela clava), appelé mideodeok (미더덕). De très petite taille (un centimètre), il est ajouté entier dans certaines recettes de soupe ; il faut alors pour extraire la chair croquer puis recracher la tunique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Figue_de_mer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figue_de_mer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hors d'Europe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Corée, on consomme un tunicier au goût similaire (Styela clava), appelé mideodeok (미더덕). De très petite taille (un centimètre), il est ajouté entier dans certaines recettes de soupe ; il faut alors pour extraire la chair croquer puis recracher la tunique.
 L'espèce Pyura chilensis, connue au Chili sous le nom de piure, est très appréciée dans ce pays. On la sert crue, avec beaucoup d'oignons hachés et du jus de citron.
 </t>
         </is>
